--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparker\Desktop\Projects\17 - Payton SSG\st app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparker\Desktop\Projects\17 - Payton SSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046E8621-5D32-42A9-BB0A-816C2A82C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458100FD-4624-440B-837A-37F8AE888E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29910" yWindow="1740" windowWidth="27000" windowHeight="11385" xr2:uid="{A49B6756-4DB8-4E67-B7B9-322374622A9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{A49B6756-4DB8-4E67-B7B9-322374622A9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Ticker replace" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ticker replace" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,11 +38,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="121">
+  <si>
+    <t>Manager Strategy Name</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Fund Cash</t>
+  </si>
+  <si>
+    <t>ETF BASKET</t>
+  </si>
+  <si>
+    <t>Gailibier</t>
+  </si>
+  <si>
+    <t>EdgePoint Go West</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>Mawer</t>
+  </si>
+  <si>
+    <t>Baillie Gifford</t>
+  </si>
+  <si>
+    <t>Oaktree</t>
+  </si>
   <si>
     <t>Fund Name</t>
   </si>
   <si>
+    <t>I3 Fixed Equity Fund</t>
+  </si>
+  <si>
+    <t>Fiera</t>
+  </si>
+  <si>
+    <t>Canso</t>
+  </si>
+  <si>
+    <t>I3 Canadian Equity Fund</t>
+  </si>
+  <si>
     <t>I3-FI-ETF</t>
   </si>
   <si>
@@ -82,6 +131,9 @@
   </si>
   <si>
     <t>I3-CE-VANTAGE</t>
+  </si>
+  <si>
+    <t>I3 Global Equity Fund</t>
   </si>
   <si>
     <t>I3-GE-CASH</t>
@@ -766,6 +818,8830 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBDCD1C-5AE6-49F8-BAA2-719A6C5B292A}">
+  <dimension ref="A1:C734"/>
+  <sheetViews>
+    <sheetView topLeftCell="A548" workbookViewId="0">
+      <selection activeCell="C563" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>I3 Fixed Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>I3 Fixed Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C130" si="1">A67&amp;B67</f>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="1"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" si="2">A131&amp;B131</f>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="2"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C258" si="3">A195&amp;B195</f>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundFiera</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>13</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="3"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>13</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C322" si="4">A259&amp;B259</f>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Fixed Equity FundCanso</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>16</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundFund Cash</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>16</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundFund Cash</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>16</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>16</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>16</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>16</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>16</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>16</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>16</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>16</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>16</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>16</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>16</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>16</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>16</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>16</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>16</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>16</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>16</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>16</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>16</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>16</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>16</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>16</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>16</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>16</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>16</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>16</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>16</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>16</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>16</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>16</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>16</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>16</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>16</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>16</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" si="4"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>16</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" ref="C323:C386" si="5">A323&amp;B323</f>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>16</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundBG</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>16</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>16</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>16</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>16</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>16</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>16</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>16</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>16</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>16</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>16</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>16</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>16</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>16</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>16</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>16</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>16</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>16</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>16</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>16</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>16</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>16</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>16</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>16</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>16</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>16</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>16</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>16</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>16</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>16</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>16</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>16</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundGailibier</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>16</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>16</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>16</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>16</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>16</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>16</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>16</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>16</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>16</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>16</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>16</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>16</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>16</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>16</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>16</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>16</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundEdgePoint Go West</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>16</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>16</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>16</v>
+      </c>
+      <c r="B381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>16</v>
+      </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>16</v>
+      </c>
+      <c r="B383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>16</v>
+      </c>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>16</v>
+      </c>
+      <c r="B385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>16</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" si="5"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>16</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" ref="C387:C450" si="6">A387&amp;B387</f>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>16</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>16</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>16</v>
+      </c>
+      <c r="B390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>16</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>16</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>16</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>16</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>16</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>16</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>16</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>16</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>16</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>16</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>16</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>16</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>16</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundVantage</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>16</v>
+      </c>
+      <c r="B404" t="s">
+        <v>7</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>16</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>16</v>
+      </c>
+      <c r="B406" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>16</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>16</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>16</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>16</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>16</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>16</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>16</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>16</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>16</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>16</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>16</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>16</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>16</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>16</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>16</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>16</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>16</v>
+      </c>
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>16</v>
+      </c>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>16</v>
+      </c>
+      <c r="B425" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>16</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>16</v>
+      </c>
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>16</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>16</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>16</v>
+      </c>
+      <c r="B430" t="s">
+        <v>7</v>
+      </c>
+      <c r="C430" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>16</v>
+      </c>
+      <c r="B431" t="s">
+        <v>7</v>
+      </c>
+      <c r="C431" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>16</v>
+      </c>
+      <c r="B432" t="s">
+        <v>7</v>
+      </c>
+      <c r="C432" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>16</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>16</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>16</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>16</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>16</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>16</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>16</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>16</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>16</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>16</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>16</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>16</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>16</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>16</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>16</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>16</v>
+      </c>
+      <c r="B448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>16</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>16</v>
+      </c>
+      <c r="B450" t="s">
+        <v>7</v>
+      </c>
+      <c r="C450" t="str">
+        <f t="shared" si="6"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>16</v>
+      </c>
+      <c r="B451" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451" t="str">
+        <f t="shared" ref="C451:C514" si="7">A451&amp;B451</f>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>16</v>
+      </c>
+      <c r="B452" t="s">
+        <v>7</v>
+      </c>
+      <c r="C452" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>16</v>
+      </c>
+      <c r="B453" t="s">
+        <v>7</v>
+      </c>
+      <c r="C453" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>16</v>
+      </c>
+      <c r="B454" t="s">
+        <v>7</v>
+      </c>
+      <c r="C454" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>16</v>
+      </c>
+      <c r="B455" t="s">
+        <v>7</v>
+      </c>
+      <c r="C455" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>16</v>
+      </c>
+      <c r="B456" t="s">
+        <v>7</v>
+      </c>
+      <c r="C456" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>16</v>
+      </c>
+      <c r="B457" t="s">
+        <v>7</v>
+      </c>
+      <c r="C457" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>16</v>
+      </c>
+      <c r="B458" t="s">
+        <v>7</v>
+      </c>
+      <c r="C458" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>16</v>
+      </c>
+      <c r="B459" t="s">
+        <v>7</v>
+      </c>
+      <c r="C459" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>16</v>
+      </c>
+      <c r="B460" t="s">
+        <v>7</v>
+      </c>
+      <c r="C460" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>16</v>
+      </c>
+      <c r="B461" t="s">
+        <v>7</v>
+      </c>
+      <c r="C461" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>16</v>
+      </c>
+      <c r="B462" t="s">
+        <v>7</v>
+      </c>
+      <c r="C462" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>16</v>
+      </c>
+      <c r="B463" t="s">
+        <v>7</v>
+      </c>
+      <c r="C463" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>16</v>
+      </c>
+      <c r="B464" t="s">
+        <v>7</v>
+      </c>
+      <c r="C464" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>16</v>
+      </c>
+      <c r="B465" t="s">
+        <v>7</v>
+      </c>
+      <c r="C465" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>16</v>
+      </c>
+      <c r="B466" t="s">
+        <v>7</v>
+      </c>
+      <c r="C466" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Canadian Equity FundMAP</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>31</v>
+      </c>
+      <c r="B467" t="s">
+        <v>2</v>
+      </c>
+      <c r="C467" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundFund Cash</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>31</v>
+      </c>
+      <c r="B468" t="s">
+        <v>3</v>
+      </c>
+      <c r="C468" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>31</v>
+      </c>
+      <c r="B469" t="s">
+        <v>3</v>
+      </c>
+      <c r="C469" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>31</v>
+      </c>
+      <c r="B470" t="s">
+        <v>3</v>
+      </c>
+      <c r="C470" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>31</v>
+      </c>
+      <c r="B471" t="s">
+        <v>3</v>
+      </c>
+      <c r="C471" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>31</v>
+      </c>
+      <c r="B472" t="s">
+        <v>3</v>
+      </c>
+      <c r="C472" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>31</v>
+      </c>
+      <c r="B473" t="s">
+        <v>3</v>
+      </c>
+      <c r="C473" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>31</v>
+      </c>
+      <c r="B474" t="s">
+        <v>3</v>
+      </c>
+      <c r="C474" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>31</v>
+      </c>
+      <c r="B475" t="s">
+        <v>3</v>
+      </c>
+      <c r="C475" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>31</v>
+      </c>
+      <c r="B476" t="s">
+        <v>3</v>
+      </c>
+      <c r="C476" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>31</v>
+      </c>
+      <c r="B477" t="s">
+        <v>3</v>
+      </c>
+      <c r="C477" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>31</v>
+      </c>
+      <c r="B478" t="s">
+        <v>3</v>
+      </c>
+      <c r="C478" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>31</v>
+      </c>
+      <c r="B479" t="s">
+        <v>3</v>
+      </c>
+      <c r="C479" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>31</v>
+      </c>
+      <c r="B480" t="s">
+        <v>3</v>
+      </c>
+      <c r="C480" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>31</v>
+      </c>
+      <c r="B481" t="s">
+        <v>3</v>
+      </c>
+      <c r="C481" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>31</v>
+      </c>
+      <c r="B482" t="s">
+        <v>3</v>
+      </c>
+      <c r="C482" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundETF BASKET</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>31</v>
+      </c>
+      <c r="B483" t="s">
+        <v>2</v>
+      </c>
+      <c r="C483" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundFund Cash</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>31</v>
+      </c>
+      <c r="B484" t="s">
+        <v>2</v>
+      </c>
+      <c r="C484" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundFund Cash</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>31</v>
+      </c>
+      <c r="B485" t="s">
+        <v>8</v>
+      </c>
+      <c r="C485" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>31</v>
+      </c>
+      <c r="B486" t="s">
+        <v>8</v>
+      </c>
+      <c r="C486" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>31</v>
+      </c>
+      <c r="B487" t="s">
+        <v>8</v>
+      </c>
+      <c r="C487" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>31</v>
+      </c>
+      <c r="B488" t="s">
+        <v>8</v>
+      </c>
+      <c r="C488" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>31</v>
+      </c>
+      <c r="B489" t="s">
+        <v>8</v>
+      </c>
+      <c r="C489" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>31</v>
+      </c>
+      <c r="B490" t="s">
+        <v>8</v>
+      </c>
+      <c r="C490" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>31</v>
+      </c>
+      <c r="B491" t="s">
+        <v>8</v>
+      </c>
+      <c r="C491" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>31</v>
+      </c>
+      <c r="B492" t="s">
+        <v>8</v>
+      </c>
+      <c r="C492" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>31</v>
+      </c>
+      <c r="B493" t="s">
+        <v>8</v>
+      </c>
+      <c r="C493" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>31</v>
+      </c>
+      <c r="B494" t="s">
+        <v>8</v>
+      </c>
+      <c r="C494" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>31</v>
+      </c>
+      <c r="B495" t="s">
+        <v>8</v>
+      </c>
+      <c r="C495" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>31</v>
+      </c>
+      <c r="B496" t="s">
+        <v>8</v>
+      </c>
+      <c r="C496" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>31</v>
+      </c>
+      <c r="B497" t="s">
+        <v>8</v>
+      </c>
+      <c r="C497" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>31</v>
+      </c>
+      <c r="B498" t="s">
+        <v>8</v>
+      </c>
+      <c r="C498" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>31</v>
+      </c>
+      <c r="B499" t="s">
+        <v>8</v>
+      </c>
+      <c r="C499" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>31</v>
+      </c>
+      <c r="B500" t="s">
+        <v>8</v>
+      </c>
+      <c r="C500" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>31</v>
+      </c>
+      <c r="B501" t="s">
+        <v>8</v>
+      </c>
+      <c r="C501" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>31</v>
+      </c>
+      <c r="B502" t="s">
+        <v>8</v>
+      </c>
+      <c r="C502" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>31</v>
+      </c>
+      <c r="B503" t="s">
+        <v>8</v>
+      </c>
+      <c r="C503" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>31</v>
+      </c>
+      <c r="B504" t="s">
+        <v>8</v>
+      </c>
+      <c r="C504" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>31</v>
+      </c>
+      <c r="B505" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>31</v>
+      </c>
+      <c r="B506" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>31</v>
+      </c>
+      <c r="B507" t="s">
+        <v>8</v>
+      </c>
+      <c r="C507" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>31</v>
+      </c>
+      <c r="B508" t="s">
+        <v>8</v>
+      </c>
+      <c r="C508" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>31</v>
+      </c>
+      <c r="B509" t="s">
+        <v>8</v>
+      </c>
+      <c r="C509" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>31</v>
+      </c>
+      <c r="B510" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>31</v>
+      </c>
+      <c r="B511" t="s">
+        <v>8</v>
+      </c>
+      <c r="C511" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>31</v>
+      </c>
+      <c r="B512" t="s">
+        <v>8</v>
+      </c>
+      <c r="C512" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>31</v>
+      </c>
+      <c r="B513" t="s">
+        <v>8</v>
+      </c>
+      <c r="C513" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>31</v>
+      </c>
+      <c r="B514" t="s">
+        <v>8</v>
+      </c>
+      <c r="C514" t="str">
+        <f t="shared" si="7"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>31</v>
+      </c>
+      <c r="B515" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515" t="str">
+        <f t="shared" ref="C515:C578" si="8">A515&amp;B515</f>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>31</v>
+      </c>
+      <c r="B516" t="s">
+        <v>8</v>
+      </c>
+      <c r="C516" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>31</v>
+      </c>
+      <c r="B517" t="s">
+        <v>8</v>
+      </c>
+      <c r="C517" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>31</v>
+      </c>
+      <c r="B518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>31</v>
+      </c>
+      <c r="B519" t="s">
+        <v>8</v>
+      </c>
+      <c r="C519" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>31</v>
+      </c>
+      <c r="B520" t="s">
+        <v>8</v>
+      </c>
+      <c r="C520" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>31</v>
+      </c>
+      <c r="B521" t="s">
+        <v>8</v>
+      </c>
+      <c r="C521" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>31</v>
+      </c>
+      <c r="B522" t="s">
+        <v>8</v>
+      </c>
+      <c r="C522" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>31</v>
+      </c>
+      <c r="B523" t="s">
+        <v>8</v>
+      </c>
+      <c r="C523" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>31</v>
+      </c>
+      <c r="B524" t="s">
+        <v>8</v>
+      </c>
+      <c r="C524" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>31</v>
+      </c>
+      <c r="B525" t="s">
+        <v>8</v>
+      </c>
+      <c r="C525" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>31</v>
+      </c>
+      <c r="B526" t="s">
+        <v>8</v>
+      </c>
+      <c r="C526" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundJohnston</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>31</v>
+      </c>
+      <c r="B527" t="s">
+        <v>9</v>
+      </c>
+      <c r="C527" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>31</v>
+      </c>
+      <c r="B528" t="s">
+        <v>9</v>
+      </c>
+      <c r="C528" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>31</v>
+      </c>
+      <c r="B529" t="s">
+        <v>9</v>
+      </c>
+      <c r="C529" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>31</v>
+      </c>
+      <c r="B530" t="s">
+        <v>9</v>
+      </c>
+      <c r="C530" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>31</v>
+      </c>
+      <c r="B531" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>31</v>
+      </c>
+      <c r="B532" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>31</v>
+      </c>
+      <c r="B533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>31</v>
+      </c>
+      <c r="B534" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>31</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>31</v>
+      </c>
+      <c r="B536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>31</v>
+      </c>
+      <c r="B537" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>31</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>31</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>31</v>
+      </c>
+      <c r="B540" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>31</v>
+      </c>
+      <c r="B541" t="s">
+        <v>9</v>
+      </c>
+      <c r="C541" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>31</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>31</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>31</v>
+      </c>
+      <c r="B544" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>31</v>
+      </c>
+      <c r="B545" t="s">
+        <v>9</v>
+      </c>
+      <c r="C545" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>31</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>31</v>
+      </c>
+      <c r="B547" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>31</v>
+      </c>
+      <c r="B548" t="s">
+        <v>9</v>
+      </c>
+      <c r="C548" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>31</v>
+      </c>
+      <c r="B549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>31</v>
+      </c>
+      <c r="B550" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>31</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>31</v>
+      </c>
+      <c r="B552" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>31</v>
+      </c>
+      <c r="B553" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>31</v>
+      </c>
+      <c r="B554" t="s">
+        <v>9</v>
+      </c>
+      <c r="C554" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>31</v>
+      </c>
+      <c r="B555" t="s">
+        <v>9</v>
+      </c>
+      <c r="C555" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>31</v>
+      </c>
+      <c r="B556" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>31</v>
+      </c>
+      <c r="B557" t="s">
+        <v>9</v>
+      </c>
+      <c r="C557" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>31</v>
+      </c>
+      <c r="B558" t="s">
+        <v>9</v>
+      </c>
+      <c r="C558" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>31</v>
+      </c>
+      <c r="B559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>31</v>
+      </c>
+      <c r="B560" t="s">
+        <v>9</v>
+      </c>
+      <c r="C560" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>31</v>
+      </c>
+      <c r="B561" t="s">
+        <v>9</v>
+      </c>
+      <c r="C561" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>31</v>
+      </c>
+      <c r="B562" t="s">
+        <v>9</v>
+      </c>
+      <c r="C562" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>31</v>
+      </c>
+      <c r="B563" t="s">
+        <v>9</v>
+      </c>
+      <c r="C563" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>31</v>
+      </c>
+      <c r="B564" t="s">
+        <v>9</v>
+      </c>
+      <c r="C564" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>31</v>
+      </c>
+      <c r="B565" t="s">
+        <v>9</v>
+      </c>
+      <c r="C565" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>31</v>
+      </c>
+      <c r="B566" t="s">
+        <v>9</v>
+      </c>
+      <c r="C566" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>31</v>
+      </c>
+      <c r="B567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>31</v>
+      </c>
+      <c r="B568" t="s">
+        <v>9</v>
+      </c>
+      <c r="C568" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>31</v>
+      </c>
+      <c r="B569" t="s">
+        <v>9</v>
+      </c>
+      <c r="C569" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>31</v>
+      </c>
+      <c r="B570" t="s">
+        <v>9</v>
+      </c>
+      <c r="C570" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>31</v>
+      </c>
+      <c r="B571" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>31</v>
+      </c>
+      <c r="B572" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>31</v>
+      </c>
+      <c r="B573" t="s">
+        <v>9</v>
+      </c>
+      <c r="C573" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>31</v>
+      </c>
+      <c r="B574" t="s">
+        <v>9</v>
+      </c>
+      <c r="C574" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>31</v>
+      </c>
+      <c r="B575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>31</v>
+      </c>
+      <c r="B576" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>31</v>
+      </c>
+      <c r="B577" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>31</v>
+      </c>
+      <c r="B578" t="s">
+        <v>9</v>
+      </c>
+      <c r="C578" t="str">
+        <f t="shared" si="8"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>31</v>
+      </c>
+      <c r="B579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" t="str">
+        <f t="shared" ref="C579:C642" si="9">A579&amp;B579</f>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>31</v>
+      </c>
+      <c r="B580" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>31</v>
+      </c>
+      <c r="B581" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>31</v>
+      </c>
+      <c r="B582" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>31</v>
+      </c>
+      <c r="B583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>31</v>
+      </c>
+      <c r="B584" t="s">
+        <v>9</v>
+      </c>
+      <c r="C584" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>31</v>
+      </c>
+      <c r="B585" t="s">
+        <v>9</v>
+      </c>
+      <c r="C585" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>31</v>
+      </c>
+      <c r="B586" t="s">
+        <v>9</v>
+      </c>
+      <c r="C586" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>31</v>
+      </c>
+      <c r="B587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>31</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>31</v>
+      </c>
+      <c r="B589" t="s">
+        <v>9</v>
+      </c>
+      <c r="C589" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>31</v>
+      </c>
+      <c r="B590" t="s">
+        <v>9</v>
+      </c>
+      <c r="C590" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>31</v>
+      </c>
+      <c r="B591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>31</v>
+      </c>
+      <c r="B592" t="s">
+        <v>9</v>
+      </c>
+      <c r="C592" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>31</v>
+      </c>
+      <c r="B593" t="s">
+        <v>9</v>
+      </c>
+      <c r="C593" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>31</v>
+      </c>
+      <c r="B594" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>31</v>
+      </c>
+      <c r="B595" t="s">
+        <v>9</v>
+      </c>
+      <c r="C595" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>31</v>
+      </c>
+      <c r="B596" t="s">
+        <v>9</v>
+      </c>
+      <c r="C596" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>31</v>
+      </c>
+      <c r="B597" t="s">
+        <v>9</v>
+      </c>
+      <c r="C597" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>31</v>
+      </c>
+      <c r="B598" t="s">
+        <v>9</v>
+      </c>
+      <c r="C598" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>31</v>
+      </c>
+      <c r="B599" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>31</v>
+      </c>
+      <c r="B600" t="s">
+        <v>9</v>
+      </c>
+      <c r="C600" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>31</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>31</v>
+      </c>
+      <c r="B602" t="s">
+        <v>9</v>
+      </c>
+      <c r="C602" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>31</v>
+      </c>
+      <c r="B603" t="s">
+        <v>9</v>
+      </c>
+      <c r="C603" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>31</v>
+      </c>
+      <c r="B604" t="s">
+        <v>9</v>
+      </c>
+      <c r="C604" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundMawer</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>31</v>
+      </c>
+      <c r="B605" t="s">
+        <v>10</v>
+      </c>
+      <c r="C605" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>31</v>
+      </c>
+      <c r="B606" t="s">
+        <v>10</v>
+      </c>
+      <c r="C606" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>31</v>
+      </c>
+      <c r="B607" t="s">
+        <v>10</v>
+      </c>
+      <c r="C607" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>31</v>
+      </c>
+      <c r="B608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C608" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>31</v>
+      </c>
+      <c r="B609" t="s">
+        <v>10</v>
+      </c>
+      <c r="C609" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>31</v>
+      </c>
+      <c r="B610" t="s">
+        <v>10</v>
+      </c>
+      <c r="C610" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>31</v>
+      </c>
+      <c r="B611" t="s">
+        <v>10</v>
+      </c>
+      <c r="C611" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>31</v>
+      </c>
+      <c r="B612" t="s">
+        <v>10</v>
+      </c>
+      <c r="C612" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>31</v>
+      </c>
+      <c r="B613" t="s">
+        <v>10</v>
+      </c>
+      <c r="C613" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>31</v>
+      </c>
+      <c r="B614" t="s">
+        <v>10</v>
+      </c>
+      <c r="C614" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>31</v>
+      </c>
+      <c r="B615" t="s">
+        <v>10</v>
+      </c>
+      <c r="C615" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>31</v>
+      </c>
+      <c r="B616" t="s">
+        <v>10</v>
+      </c>
+      <c r="C616" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>31</v>
+      </c>
+      <c r="B617" t="s">
+        <v>10</v>
+      </c>
+      <c r="C617" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>31</v>
+      </c>
+      <c r="B618" t="s">
+        <v>10</v>
+      </c>
+      <c r="C618" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>31</v>
+      </c>
+      <c r="B619" t="s">
+        <v>10</v>
+      </c>
+      <c r="C619" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>31</v>
+      </c>
+      <c r="B620" t="s">
+        <v>10</v>
+      </c>
+      <c r="C620" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>31</v>
+      </c>
+      <c r="B621" t="s">
+        <v>10</v>
+      </c>
+      <c r="C621" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>31</v>
+      </c>
+      <c r="B622" t="s">
+        <v>10</v>
+      </c>
+      <c r="C622" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>31</v>
+      </c>
+      <c r="B623" t="s">
+        <v>10</v>
+      </c>
+      <c r="C623" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>31</v>
+      </c>
+      <c r="B624" t="s">
+        <v>10</v>
+      </c>
+      <c r="C624" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>31</v>
+      </c>
+      <c r="B625" t="s">
+        <v>10</v>
+      </c>
+      <c r="C625" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>31</v>
+      </c>
+      <c r="B626" t="s">
+        <v>10</v>
+      </c>
+      <c r="C626" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>31</v>
+      </c>
+      <c r="B627" t="s">
+        <v>10</v>
+      </c>
+      <c r="C627" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>31</v>
+      </c>
+      <c r="B628" t="s">
+        <v>10</v>
+      </c>
+      <c r="C628" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>31</v>
+      </c>
+      <c r="B629" t="s">
+        <v>10</v>
+      </c>
+      <c r="C629" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>31</v>
+      </c>
+      <c r="B630" t="s">
+        <v>10</v>
+      </c>
+      <c r="C630" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>31</v>
+      </c>
+      <c r="B631" t="s">
+        <v>10</v>
+      </c>
+      <c r="C631" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>31</v>
+      </c>
+      <c r="B632" t="s">
+        <v>10</v>
+      </c>
+      <c r="C632" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>31</v>
+      </c>
+      <c r="B633" t="s">
+        <v>10</v>
+      </c>
+      <c r="C633" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>31</v>
+      </c>
+      <c r="B634" t="s">
+        <v>10</v>
+      </c>
+      <c r="C634" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>31</v>
+      </c>
+      <c r="B635" t="s">
+        <v>10</v>
+      </c>
+      <c r="C635" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>31</v>
+      </c>
+      <c r="B636" t="s">
+        <v>10</v>
+      </c>
+      <c r="C636" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>31</v>
+      </c>
+      <c r="B637" t="s">
+        <v>10</v>
+      </c>
+      <c r="C637" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>31</v>
+      </c>
+      <c r="B638" t="s">
+        <v>10</v>
+      </c>
+      <c r="C638" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>31</v>
+      </c>
+      <c r="B639" t="s">
+        <v>10</v>
+      </c>
+      <c r="C639" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>31</v>
+      </c>
+      <c r="B640" t="s">
+        <v>10</v>
+      </c>
+      <c r="C640" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>31</v>
+      </c>
+      <c r="B641" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>31</v>
+      </c>
+      <c r="B642" t="s">
+        <v>10</v>
+      </c>
+      <c r="C642" t="str">
+        <f t="shared" si="9"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>31</v>
+      </c>
+      <c r="B643" t="s">
+        <v>10</v>
+      </c>
+      <c r="C643" t="str">
+        <f t="shared" ref="C643:C706" si="10">A643&amp;B643</f>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>31</v>
+      </c>
+      <c r="B644" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>31</v>
+      </c>
+      <c r="B645" t="s">
+        <v>10</v>
+      </c>
+      <c r="C645" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>31</v>
+      </c>
+      <c r="B646" t="s">
+        <v>10</v>
+      </c>
+      <c r="C646" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>31</v>
+      </c>
+      <c r="B647" t="s">
+        <v>10</v>
+      </c>
+      <c r="C647" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>31</v>
+      </c>
+      <c r="B648" t="s">
+        <v>10</v>
+      </c>
+      <c r="C648" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>31</v>
+      </c>
+      <c r="B649" t="s">
+        <v>10</v>
+      </c>
+      <c r="C649" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>31</v>
+      </c>
+      <c r="B650" t="s">
+        <v>10</v>
+      </c>
+      <c r="C650" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>31</v>
+      </c>
+      <c r="B651" t="s">
+        <v>10</v>
+      </c>
+      <c r="C651" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>31</v>
+      </c>
+      <c r="B652" t="s">
+        <v>10</v>
+      </c>
+      <c r="C652" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>31</v>
+      </c>
+      <c r="B653" t="s">
+        <v>10</v>
+      </c>
+      <c r="C653" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>31</v>
+      </c>
+      <c r="B654" t="s">
+        <v>10</v>
+      </c>
+      <c r="C654" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>31</v>
+      </c>
+      <c r="B655" t="s">
+        <v>10</v>
+      </c>
+      <c r="C655" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>31</v>
+      </c>
+      <c r="B656" t="s">
+        <v>10</v>
+      </c>
+      <c r="C656" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>31</v>
+      </c>
+      <c r="B657" t="s">
+        <v>10</v>
+      </c>
+      <c r="C657" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>31</v>
+      </c>
+      <c r="B658" t="s">
+        <v>10</v>
+      </c>
+      <c r="C658" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>31</v>
+      </c>
+      <c r="B659" t="s">
+        <v>10</v>
+      </c>
+      <c r="C659" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>31</v>
+      </c>
+      <c r="B660" t="s">
+        <v>10</v>
+      </c>
+      <c r="C660" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>31</v>
+      </c>
+      <c r="B661" t="s">
+        <v>10</v>
+      </c>
+      <c r="C661" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>31</v>
+      </c>
+      <c r="B662" t="s">
+        <v>10</v>
+      </c>
+      <c r="C662" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>31</v>
+      </c>
+      <c r="B663" t="s">
+        <v>10</v>
+      </c>
+      <c r="C663" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>31</v>
+      </c>
+      <c r="B664" t="s">
+        <v>10</v>
+      </c>
+      <c r="C664" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>31</v>
+      </c>
+      <c r="B665" t="s">
+        <v>10</v>
+      </c>
+      <c r="C665" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>31</v>
+      </c>
+      <c r="B666" t="s">
+        <v>10</v>
+      </c>
+      <c r="C666" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>31</v>
+      </c>
+      <c r="B667" t="s">
+        <v>10</v>
+      </c>
+      <c r="C667" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>31</v>
+      </c>
+      <c r="B668" t="s">
+        <v>10</v>
+      </c>
+      <c r="C668" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>31</v>
+      </c>
+      <c r="B669" t="s">
+        <v>10</v>
+      </c>
+      <c r="C669" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>31</v>
+      </c>
+      <c r="B670" t="s">
+        <v>10</v>
+      </c>
+      <c r="C670" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundBaillie Gifford</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>31</v>
+      </c>
+      <c r="B671" t="s">
+        <v>11</v>
+      </c>
+      <c r="C671" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>31</v>
+      </c>
+      <c r="B672" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>31</v>
+      </c>
+      <c r="B673" t="s">
+        <v>11</v>
+      </c>
+      <c r="C673" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>31</v>
+      </c>
+      <c r="B674" t="s">
+        <v>11</v>
+      </c>
+      <c r="C674" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>31</v>
+      </c>
+      <c r="B675" t="s">
+        <v>11</v>
+      </c>
+      <c r="C675" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>31</v>
+      </c>
+      <c r="B676" t="s">
+        <v>11</v>
+      </c>
+      <c r="C676" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>31</v>
+      </c>
+      <c r="B677" t="s">
+        <v>11</v>
+      </c>
+      <c r="C677" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>31</v>
+      </c>
+      <c r="B678" t="s">
+        <v>11</v>
+      </c>
+      <c r="C678" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>31</v>
+      </c>
+      <c r="B679" t="s">
+        <v>11</v>
+      </c>
+      <c r="C679" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>31</v>
+      </c>
+      <c r="B680" t="s">
+        <v>11</v>
+      </c>
+      <c r="C680" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>31</v>
+      </c>
+      <c r="B681" t="s">
+        <v>11</v>
+      </c>
+      <c r="C681" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>31</v>
+      </c>
+      <c r="B682" t="s">
+        <v>11</v>
+      </c>
+      <c r="C682" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>31</v>
+      </c>
+      <c r="B683" t="s">
+        <v>11</v>
+      </c>
+      <c r="C683" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>31</v>
+      </c>
+      <c r="B684" t="s">
+        <v>11</v>
+      </c>
+      <c r="C684" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>31</v>
+      </c>
+      <c r="B685" t="s">
+        <v>11</v>
+      </c>
+      <c r="C685" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>31</v>
+      </c>
+      <c r="B686" t="s">
+        <v>11</v>
+      </c>
+      <c r="C686" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>31</v>
+      </c>
+      <c r="B687" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>31</v>
+      </c>
+      <c r="B688" t="s">
+        <v>11</v>
+      </c>
+      <c r="C688" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>31</v>
+      </c>
+      <c r="B689" t="s">
+        <v>11</v>
+      </c>
+      <c r="C689" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>31</v>
+      </c>
+      <c r="B690" t="s">
+        <v>11</v>
+      </c>
+      <c r="C690" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>31</v>
+      </c>
+      <c r="B691" t="s">
+        <v>11</v>
+      </c>
+      <c r="C691" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>31</v>
+      </c>
+      <c r="B692" t="s">
+        <v>11</v>
+      </c>
+      <c r="C692" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>31</v>
+      </c>
+      <c r="B693" t="s">
+        <v>11</v>
+      </c>
+      <c r="C693" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>31</v>
+      </c>
+      <c r="B694" t="s">
+        <v>11</v>
+      </c>
+      <c r="C694" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>31</v>
+      </c>
+      <c r="B695" t="s">
+        <v>11</v>
+      </c>
+      <c r="C695" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>31</v>
+      </c>
+      <c r="B696" t="s">
+        <v>11</v>
+      </c>
+      <c r="C696" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>31</v>
+      </c>
+      <c r="B697" t="s">
+        <v>11</v>
+      </c>
+      <c r="C697" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>31</v>
+      </c>
+      <c r="B698" t="s">
+        <v>11</v>
+      </c>
+      <c r="C698" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>31</v>
+      </c>
+      <c r="B699" t="s">
+        <v>11</v>
+      </c>
+      <c r="C699" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>31</v>
+      </c>
+      <c r="B700" t="s">
+        <v>11</v>
+      </c>
+      <c r="C700" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>31</v>
+      </c>
+      <c r="B701" t="s">
+        <v>11</v>
+      </c>
+      <c r="C701" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>31</v>
+      </c>
+      <c r="B702" t="s">
+        <v>11</v>
+      </c>
+      <c r="C702" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>31</v>
+      </c>
+      <c r="B703" t="s">
+        <v>11</v>
+      </c>
+      <c r="C703" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>31</v>
+      </c>
+      <c r="B704" t="s">
+        <v>11</v>
+      </c>
+      <c r="C704" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>31</v>
+      </c>
+      <c r="B705" t="s">
+        <v>11</v>
+      </c>
+      <c r="C705" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>31</v>
+      </c>
+      <c r="B706" t="s">
+        <v>11</v>
+      </c>
+      <c r="C706" t="str">
+        <f t="shared" si="10"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>31</v>
+      </c>
+      <c r="B707" t="s">
+        <v>11</v>
+      </c>
+      <c r="C707" t="str">
+        <f t="shared" ref="C707:C734" si="11">A707&amp;B707</f>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>31</v>
+      </c>
+      <c r="B708" t="s">
+        <v>11</v>
+      </c>
+      <c r="C708" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>31</v>
+      </c>
+      <c r="B709" t="s">
+        <v>11</v>
+      </c>
+      <c r="C709" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>31</v>
+      </c>
+      <c r="B710" t="s">
+        <v>11</v>
+      </c>
+      <c r="C710" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>31</v>
+      </c>
+      <c r="B711" t="s">
+        <v>11</v>
+      </c>
+      <c r="C711" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>31</v>
+      </c>
+      <c r="B712" t="s">
+        <v>11</v>
+      </c>
+      <c r="C712" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>31</v>
+      </c>
+      <c r="B713" t="s">
+        <v>11</v>
+      </c>
+      <c r="C713" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>31</v>
+      </c>
+      <c r="B714" t="s">
+        <v>11</v>
+      </c>
+      <c r="C714" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>31</v>
+      </c>
+      <c r="B715" t="s">
+        <v>11</v>
+      </c>
+      <c r="C715" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>31</v>
+      </c>
+      <c r="B716" t="s">
+        <v>11</v>
+      </c>
+      <c r="C716" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>31</v>
+      </c>
+      <c r="B717" t="s">
+        <v>11</v>
+      </c>
+      <c r="C717" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>31</v>
+      </c>
+      <c r="B718" t="s">
+        <v>11</v>
+      </c>
+      <c r="C718" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>31</v>
+      </c>
+      <c r="B719" t="s">
+        <v>11</v>
+      </c>
+      <c r="C719" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>31</v>
+      </c>
+      <c r="B720" t="s">
+        <v>11</v>
+      </c>
+      <c r="C720" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>31</v>
+      </c>
+      <c r="B721" t="s">
+        <v>11</v>
+      </c>
+      <c r="C721" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>31</v>
+      </c>
+      <c r="B722" t="s">
+        <v>11</v>
+      </c>
+      <c r="C722" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>31</v>
+      </c>
+      <c r="B723" t="s">
+        <v>11</v>
+      </c>
+      <c r="C723" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>31</v>
+      </c>
+      <c r="B724" t="s">
+        <v>11</v>
+      </c>
+      <c r="C724" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>31</v>
+      </c>
+      <c r="B725" t="s">
+        <v>11</v>
+      </c>
+      <c r="C725" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>31</v>
+      </c>
+      <c r="B726" t="s">
+        <v>11</v>
+      </c>
+      <c r="C726" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>31</v>
+      </c>
+      <c r="B727" t="s">
+        <v>11</v>
+      </c>
+      <c r="C727" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>31</v>
+      </c>
+      <c r="B728" t="s">
+        <v>11</v>
+      </c>
+      <c r="C728" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>31</v>
+      </c>
+      <c r="B729" t="s">
+        <v>11</v>
+      </c>
+      <c r="C729" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>31</v>
+      </c>
+      <c r="B730" t="s">
+        <v>11</v>
+      </c>
+      <c r="C730" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>31</v>
+      </c>
+      <c r="B731" t="s">
+        <v>11</v>
+      </c>
+      <c r="C731" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>31</v>
+      </c>
+      <c r="B732" t="s">
+        <v>11</v>
+      </c>
+      <c r="C732" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>31</v>
+      </c>
+      <c r="B733" t="s">
+        <v>11</v>
+      </c>
+      <c r="C733" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>31</v>
+      </c>
+      <c r="B734" t="s">
+        <v>11</v>
+      </c>
+      <c r="C734" t="str">
+        <f t="shared" si="11"/>
+        <v>I3 Global Equity FundOaktree</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C7F04-5517-49FD-992E-EE47C218DDFB}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -783,188 +9659,188 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +9848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4793F6-B2E5-4A3C-BCCF-0E145242AB2A}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -987,218 +9863,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
